--- a/Configuration.xlsx
+++ b/Configuration.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="209">
   <si>
     <t>FilePath</t>
   </si>
@@ -595,6 +595,60 @@
   </si>
   <si>
     <t>G2</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -952,7 +1006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1552,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,6 +1683,9 @@
       <c r="C4" t="s">
         <v>128</v>
       </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
@@ -1685,6 +1742,9 @@
       <c r="C8" t="s">
         <v>128</v>
       </c>
+      <c r="D8" t="s">
+        <v>185</v>
+      </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
@@ -1843,6 +1903,9 @@
       <c r="C18" t="s">
         <v>133</v>
       </c>
+      <c r="D18" t="s">
+        <v>185</v>
+      </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
@@ -1857,6 +1920,9 @@
       <c r="C19" t="s">
         <v>136</v>
       </c>
+      <c r="D19" t="s">
+        <v>205</v>
+      </c>
       <c r="H19" t="s">
         <v>32</v>
       </c>
@@ -1871,6 +1937,9 @@
       <c r="C20" t="s">
         <v>137</v>
       </c>
+      <c r="D20" t="s">
+        <v>185</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1885,6 +1954,9 @@
       <c r="C21" t="s">
         <v>139</v>
       </c>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1899,6 +1971,9 @@
       <c r="C22" t="s">
         <v>138</v>
       </c>
+      <c r="D22" t="s">
+        <v>185</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1913,6 +1988,9 @@
       <c r="C23" t="s">
         <v>128</v>
       </c>
+      <c r="D23" t="s">
+        <v>206</v>
+      </c>
       <c r="H23" t="s">
         <v>40</v>
       </c>
@@ -1927,6 +2005,9 @@
       <c r="C24" t="s">
         <v>141</v>
       </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
       <c r="H24" t="s">
         <v>40</v>
       </c>
@@ -1941,6 +2022,9 @@
       <c r="C25" t="s">
         <v>133</v>
       </c>
+      <c r="D25" t="s">
+        <v>193</v>
+      </c>
       <c r="H25" t="s">
         <v>40</v>
       </c>
@@ -1955,6 +2039,9 @@
       <c r="C26" t="s">
         <v>128</v>
       </c>
+      <c r="D26" t="s">
+        <v>186</v>
+      </c>
       <c r="H26" t="s">
         <v>44</v>
       </c>
@@ -1969,6 +2056,9 @@
       <c r="C27" t="s">
         <v>133</v>
       </c>
+      <c r="D27" t="s">
+        <v>186</v>
+      </c>
       <c r="H27" t="s">
         <v>44</v>
       </c>
@@ -2087,6 +2177,9 @@
       <c r="C35" t="s">
         <v>144</v>
       </c>
+      <c r="D35" t="s">
+        <v>195</v>
+      </c>
       <c r="H35" t="s">
         <v>60</v>
       </c>
@@ -2101,6 +2194,9 @@
       <c r="C36" t="s">
         <v>145</v>
       </c>
+      <c r="D36" t="s">
+        <v>200</v>
+      </c>
       <c r="H36" t="s">
         <v>60</v>
       </c>
@@ -2115,6 +2211,9 @@
       <c r="C37" t="s">
         <v>146</v>
       </c>
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
       <c r="H37" t="s">
         <v>60</v>
       </c>
@@ -2129,6 +2228,9 @@
       <c r="C38" t="s">
         <v>147</v>
       </c>
+      <c r="D38" t="s">
+        <v>185</v>
+      </c>
       <c r="H38" t="s">
         <v>60</v>
       </c>
@@ -2143,6 +2245,9 @@
       <c r="C39" t="s">
         <v>148</v>
       </c>
+      <c r="D39" t="s">
+        <v>199</v>
+      </c>
       <c r="H39" t="s">
         <v>60</v>
       </c>
@@ -2157,6 +2262,9 @@
       <c r="C40" t="s">
         <v>149</v>
       </c>
+      <c r="D40" t="s">
+        <v>185</v>
+      </c>
       <c r="H40" t="s">
         <v>60</v>
       </c>
@@ -2171,6 +2279,9 @@
       <c r="C41" t="s">
         <v>150</v>
       </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
       <c r="H41" t="s">
         <v>60</v>
       </c>
@@ -2185,6 +2296,9 @@
       <c r="C42" t="s">
         <v>151</v>
       </c>
+      <c r="D42" t="s">
+        <v>196</v>
+      </c>
       <c r="H42" t="s">
         <v>60</v>
       </c>
@@ -2199,6 +2313,9 @@
       <c r="C43" t="s">
         <v>136</v>
       </c>
+      <c r="D43" t="s">
+        <v>197</v>
+      </c>
       <c r="H43" t="s">
         <v>60</v>
       </c>
@@ -2213,6 +2330,9 @@
       <c r="C44" t="s">
         <v>152</v>
       </c>
+      <c r="D44" t="s">
+        <v>203</v>
+      </c>
       <c r="H44" s="1" t="s">
         <v>66</v>
       </c>
@@ -2227,6 +2347,9 @@
       <c r="C45" t="s">
         <v>153</v>
       </c>
+      <c r="D45" t="s">
+        <v>203</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>66</v>
       </c>
@@ -2241,6 +2364,9 @@
       <c r="C46" t="s">
         <v>154</v>
       </c>
+      <c r="D46" t="s">
+        <v>203</v>
+      </c>
       <c r="H46" s="1" t="s">
         <v>66</v>
       </c>
@@ -2255,6 +2381,9 @@
       <c r="C47" t="s">
         <v>155</v>
       </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
       <c r="H47" s="1" t="s">
         <v>66</v>
       </c>
@@ -2269,6 +2398,9 @@
       <c r="C48" t="s">
         <v>156</v>
       </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
       <c r="H48" s="1" t="s">
         <v>66</v>
       </c>
@@ -2283,6 +2415,9 @@
       <c r="C49" t="s">
         <v>157</v>
       </c>
+      <c r="D49" t="s">
+        <v>202</v>
+      </c>
       <c r="H49" s="1" t="s">
         <v>66</v>
       </c>
@@ -2353,6 +2488,9 @@
       <c r="C54" t="s">
         <v>128</v>
       </c>
+      <c r="D54" t="s">
+        <v>192</v>
+      </c>
       <c r="H54" s="1" t="s">
         <v>72</v>
       </c>
@@ -2367,6 +2505,9 @@
       <c r="C55" t="s">
         <v>141</v>
       </c>
+      <c r="D55" t="s">
+        <v>185</v>
+      </c>
       <c r="H55" s="1" t="s">
         <v>72</v>
       </c>
@@ -2381,6 +2522,9 @@
       <c r="C56" t="s">
         <v>133</v>
       </c>
+      <c r="D56" t="s">
+        <v>185</v>
+      </c>
       <c r="H56" s="1" t="s">
         <v>72</v>
       </c>
@@ -2451,6 +2595,9 @@
       <c r="C61" t="s">
         <v>164</v>
       </c>
+      <c r="D61" t="s">
+        <v>201</v>
+      </c>
       <c r="H61" t="s">
         <v>60</v>
       </c>
@@ -2465,6 +2612,9 @@
       <c r="C62" t="s">
         <v>163</v>
       </c>
+      <c r="D62" t="s">
+        <v>185</v>
+      </c>
       <c r="H62" t="s">
         <v>60</v>
       </c>
@@ -2479,6 +2629,9 @@
       <c r="C63" t="s">
         <v>165</v>
       </c>
+      <c r="D63" t="s">
+        <v>201</v>
+      </c>
       <c r="H63" t="s">
         <v>60</v>
       </c>
@@ -2493,6 +2646,9 @@
       <c r="C64" t="s">
         <v>166</v>
       </c>
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
       <c r="H64" t="s">
         <v>60</v>
       </c>
@@ -2507,6 +2663,9 @@
       <c r="C65" t="s">
         <v>128</v>
       </c>
+      <c r="D65" t="s">
+        <v>208</v>
+      </c>
       <c r="H65" s="1" t="s">
         <v>108</v>
       </c>
@@ -2521,6 +2680,9 @@
       <c r="C66" t="s">
         <v>169</v>
       </c>
+      <c r="D66" t="s">
+        <v>188</v>
+      </c>
       <c r="H66" s="1" t="s">
         <v>108</v>
       </c>
@@ -2535,6 +2697,9 @@
       <c r="C67" t="s">
         <v>170</v>
       </c>
+      <c r="D67" t="s">
+        <v>208</v>
+      </c>
       <c r="H67" s="1" t="s">
         <v>108</v>
       </c>
@@ -2549,6 +2714,9 @@
       <c r="C68" t="s">
         <v>141</v>
       </c>
+      <c r="D68" t="s">
+        <v>193</v>
+      </c>
       <c r="H68" s="1" t="s">
         <v>109</v>
       </c>
@@ -2591,6 +2759,9 @@
       <c r="C71" t="s">
         <v>128</v>
       </c>
+      <c r="D71" t="s">
+        <v>185</v>
+      </c>
       <c r="H71" s="1" t="s">
         <v>111</v>
       </c>
@@ -2605,6 +2776,9 @@
       <c r="C72" t="s">
         <v>141</v>
       </c>
+      <c r="D72" t="s">
+        <v>185</v>
+      </c>
       <c r="H72" s="1" t="s">
         <v>111</v>
       </c>
@@ -2619,6 +2793,9 @@
       <c r="C73" t="s">
         <v>133</v>
       </c>
+      <c r="D73" t="s">
+        <v>185</v>
+      </c>
       <c r="H73" s="1" t="s">
         <v>111</v>
       </c>
@@ -2633,6 +2810,9 @@
       <c r="C74" t="s">
         <v>172</v>
       </c>
+      <c r="D74" t="s">
+        <v>185</v>
+      </c>
       <c r="H74" s="1" t="s">
         <v>111</v>
       </c>
@@ -2664,6 +2844,9 @@
       <c r="C76" t="s">
         <v>174</v>
       </c>
+      <c r="D76" t="s">
+        <v>194</v>
+      </c>
       <c r="H76" s="1" t="s">
         <v>110</v>
       </c>
@@ -2678,6 +2861,9 @@
       <c r="C77" t="s">
         <v>175</v>
       </c>
+      <c r="D77" t="s">
+        <v>194</v>
+      </c>
       <c r="H77" s="1" t="s">
         <v>110</v>
       </c>
@@ -2706,6 +2892,9 @@
       <c r="C79" t="s">
         <v>177</v>
       </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
       <c r="H79" s="1" t="s">
         <v>112</v>
       </c>
@@ -2720,6 +2909,9 @@
       <c r="C80" t="s">
         <v>178</v>
       </c>
+      <c r="D80" t="s">
+        <v>208</v>
+      </c>
       <c r="H80" s="1" t="s">
         <v>112</v>
       </c>
@@ -2734,6 +2926,9 @@
       <c r="C81" t="s">
         <v>150</v>
       </c>
+      <c r="D81" t="s">
+        <v>208</v>
+      </c>
       <c r="H81" s="1" t="s">
         <v>112</v>
       </c>
@@ -2776,6 +2971,9 @@
       <c r="C84" t="s">
         <v>179</v>
       </c>
+      <c r="D84" t="s">
+        <v>204</v>
+      </c>
       <c r="H84" t="s">
         <v>60</v>
       </c>
@@ -2790,6 +2988,9 @@
       <c r="C85" t="s">
         <v>179</v>
       </c>
+      <c r="D85" t="s">
+        <v>204</v>
+      </c>
       <c r="H85" t="s">
         <v>60</v>
       </c>
@@ -2803,6 +3004,9 @@
       </c>
       <c r="C86" t="s">
         <v>180</v>
+      </c>
+      <c r="D86" t="s">
+        <v>185</v>
       </c>
       <c r="H86" t="s">
         <v>60</v>
